--- a/biology/Écologie/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(W)/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(W).xlsx
+++ b/biology/Écologie/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(W)/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(W).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(W)</t>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(W)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(W)</t>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(W)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,17 +525,90 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Wah
-Wahlenbergia - fam. Campanulacées
-Wahlenbergia hederacea - Wahlenbergie à feuilles de lierre
-Wal
-Waldsteinia
+          <t>Wah</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Wahlenbergia - fam. Campanulacées
+Wahlenbergia hederacea - Wahlenbergie à feuilles de lierre</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(W)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(W)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Wa</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Wal</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Waldsteinia
 Waldsteinia fragarioides - Waldsteinia faux-fraisier
 Waldsteinia geoides
 Waldsteinia ternata
-Waldsteinia trifolia - Waldsteinia à trois feuilles
-Was
-Wasabia - Brassicacées
+Waldsteinia trifolia - Waldsteinia à trois feuilles</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(W)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(W)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Wa</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Was</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Wasabia - Brassicacées
 Wasabia japonica - Wasabi
 Washingtonia  - Arécacées
 Washingtonia californica - Palmier Washingtonia
@@ -531,66 +616,76 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(W)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(W)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Écologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(W)</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>We</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Wei
-Weigela
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Wei</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Weigela
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(W)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(W)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Écologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(W)</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Wi</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Wis
-Wisteria - fam. Fabaceae
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Wis</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Wisteria - fam. Fabaceae
 Wisteria floribunda
 Wisteria floribunda Alba
 Wisteria sinensis - Glycine de Chine ou « Wistérie de Chine »
@@ -598,39 +693,78 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(W)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(W)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Écologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(W)</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Wo</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Wol
-Wolffia - fam. Lemnacées
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Wol</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Wolffia - fam. Lemnacées
 Wolffia arrhiza - Wolffia sans racines
 Wolffia borealis - Wolffia boréale
-Wolfia columbiana - Wolffia de Colombie
-Woo
-Woodsia - fam. Polypodiacées
+Wolfia columbiana - Wolffia de Colombie</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(W)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(W)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Wo</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Woo</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Woodsia - fam. Polypodiacées
 Woodsia alpina - Woodsie alpine
 Woodsia glabella
 Woodsia hyperborea Woodsia hyperboréale
@@ -655,34 +789,39 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(W)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(W)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Écologie/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(W)</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Wu</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Wul
-Wulfenia
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Wul</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Wulfenia
 Wulfenia carinthiaca
  Portail de l’écologie   Portail de la botanique                    </t>
         </is>
